--- a/src/assets/数据语料平台.xlsx
+++ b/src/assets/数据语料平台.xlsx
@@ -4,36 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18052" windowHeight="9367" activeTab="1"/>
+    <workbookView windowHeight="14680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总语料量" sheetId="6" r:id="rId1"/>
     <sheet name="供应商语料分布" sheetId="1" r:id="rId2"/>
     <sheet name="行业语料分布" sheetId="2" r:id="rId3"/>
-    <sheet name="语料数据来源占比" sheetId="3" r:id="rId4"/>
-    <sheet name="语料用途分类" sheetId="4" r:id="rId5"/>
-    <sheet name="语料收集与处理" sheetId="5" r:id="rId6"/>
-    <sheet name="公司语料处理进程" sheetId="7" r:id="rId7"/>
+    <sheet name="二级行业语料分布" sheetId="8" r:id="rId4"/>
+    <sheet name="语料数据来源占比" sheetId="3" r:id="rId5"/>
+    <sheet name="语料用途分类" sheetId="4" r:id="rId6"/>
+    <sheet name="语料收集与处理" sheetId="5" r:id="rId7"/>
+    <sheet name="公司语料处理进程" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -41,25 +29,67 @@
     <t>总语料量</t>
   </si>
   <si>
+    <t>59T</t>
+  </si>
+  <si>
     <t>供应商名称</t>
   </si>
   <si>
-    <t>提供语料数据量</t>
+    <t>提供语料数据量T</t>
+  </si>
+  <si>
+    <t>印刷集团</t>
+  </si>
+  <si>
+    <t>中交集团</t>
+  </si>
+  <si>
+    <t>蒙泰集团</t>
   </si>
   <si>
     <t>行业名称</t>
   </si>
   <si>
-    <t>语料数据量</t>
-  </si>
-  <si>
-    <t>工业</t>
-  </si>
-  <si>
-    <t>互联网</t>
-  </si>
-  <si>
-    <t>行业语料分布详情</t>
+    <t>语料数据量T</t>
+  </si>
+  <si>
+    <t>标注完成比率%</t>
+  </si>
+  <si>
+    <t>工业制造业</t>
+  </si>
+  <si>
+    <t>科技互联网业</t>
+  </si>
+  <si>
+    <t>金融业</t>
+  </si>
+  <si>
+    <t>交通运输业</t>
+  </si>
+  <si>
+    <t>经史文学业</t>
+  </si>
+  <si>
+    <t>医学业</t>
+  </si>
+  <si>
+    <t>教育业</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>政治意识形态</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>资讯和信息</t>
+  </si>
+  <si>
+    <t>其他（未分类）</t>
   </si>
   <si>
     <t>语料总数据量</t>
@@ -71,34 +101,73 @@
     <t>建筑</t>
   </si>
   <si>
-    <t>交通</t>
-  </si>
-  <si>
-    <t>铁建</t>
+    <t>冶金</t>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>化工</t>
+  </si>
+  <si>
+    <t>其他工业</t>
   </si>
   <si>
     <t>数据来源</t>
   </si>
   <si>
-    <t>来源占比</t>
+    <t>来源占比%</t>
+  </si>
+  <si>
+    <t>人工搜集</t>
+  </si>
+  <si>
+    <t>爬虫获取</t>
+  </si>
+  <si>
+    <t>生态合作</t>
+  </si>
+  <si>
+    <t>供应商贡献</t>
+  </si>
+  <si>
+    <t>自有脱敏</t>
   </si>
   <si>
     <t>语料用途名称</t>
   </si>
   <si>
-    <t>用途数据量</t>
+    <t>用途数据量T</t>
+  </si>
+  <si>
+    <t>产业知识库/知识图谱</t>
+  </si>
+  <si>
+    <t>指令对齐语料</t>
+  </si>
+  <si>
+    <t>平行语料</t>
   </si>
   <si>
     <t>年份</t>
   </si>
   <si>
-    <t>语料收集数据量</t>
-  </si>
-  <si>
-    <t>语料处理数据量</t>
+    <t>语料收集数据量T</t>
+  </si>
+  <si>
+    <t>语料处理数据量T</t>
+  </si>
+  <si>
+    <t>处理进程%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>处理数据语料量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1035,12 +1104,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.01923076923077" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.0884955752212" customWidth="1"/>
+    <col min="1" max="1" width="12.0865384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1051,9 +1120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1065,16 +1137,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:C15"/>
+  <dimension ref="A10:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="16.7345132743363" customWidth="1"/>
+    <col min="2" max="4" width="16.7307692307692" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:3">
@@ -1082,35 +1154,43 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
-        <v>5</v>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1123,111 +1203,347 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="14.212389380531" customWidth="1"/>
-    <col min="3" max="4" width="13.0176991150442" customWidth="1"/>
+    <col min="1" max="1" width="14.2115384615385" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.2884615384615" customWidth="1"/>
+    <col min="4" max="4" width="13.0192307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A13" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>8.14</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>0.005</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0.005</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>0.01</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E24" si="1">C19*D19</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>0.03</v>
+      </c>
+      <c r="D20">
+        <v>74</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+      <c r="D21">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>0.05</v>
+      </c>
+      <c r="D22">
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C23">
+        <v>0.02</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <f>C2-SUM(C19:C23)</f>
+        <v>0.07</v>
+      </c>
+      <c r="D24">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25">
+        <f>SUM(E19:E24)/SUM(C19:C24)</f>
+        <v>39.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1239,15 +1555,161 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E7" si="0">C2*D2</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>0.02</v>
+      </c>
+      <c r="D4">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <f>0.2-SUM(C2:C6)</f>
+        <v>0.07</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8">
+        <f>SUM(E2:E7)/SUM(C2:C7)</f>
+        <v>39.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="3" width="11.2212389380531" customWidth="1"/>
+    <col min="2" max="3" width="11.2211538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1255,35 +1717,71 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1293,18 +1791,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.01923076923077" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12.1592920353982" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="12.2403846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1312,95 +1811,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <f>59-C2-C3</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="3" max="4" width="13.9380530973451" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1411,15 +1866,150 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.01923076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="15.3557692307692" customWidth="1"/>
+    <col min="5" max="5" width="14.4519230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E6" si="0">100*D2/C2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>66.6666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6">
+        <f>59-SUM(C2:C5)</f>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.01923076923077" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="19.3893805309735" customWidth="1"/>
+    <col min="3" max="3" width="19.3942307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1427,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1456,6 +2046,11 @@
     <row r="6" spans="1:1">
       <c r="A6" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
